--- a/table/Model.xlsx
+++ b/table/Model.xlsx
@@ -95,7 +95,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>test{x:int,y:{x:int,y:int}}</t>
+    <t>{x:int,y:{x:int,y:int}}</t>
   </si>
   <si>
     <t>模型id</t>
@@ -1100,7 +1100,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
